--- a/Creatures and Events Table.xlsx
+++ b/Creatures and Events Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/272cbd6127da4c97/TRPGs - Numenera/NumeneraAppFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{A0CFA676-7CB8-4FE6-B882-5504D23926A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{48CF3C43-C21E-43A6-95DD-CB614265CFFD}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{A0CFA676-7CB8-4FE6-B882-5504D23926A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{37D87B1C-0264-4BFF-909F-D273D2C32230}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roll First" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="334">
   <si>
     <t>№</t>
   </si>
@@ -1036,9 +1036,6 @@
   </si>
   <si>
     <t>В случае успеха кидается еще один д20 на тип события</t>
-  </si>
-  <si>
-    <t>dfgdf</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1192,38 +1189,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,6 +1228,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1528,66 +1528,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E737AD-355C-4F93-B6C1-A68C89F2003F}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="28"/>
-    <col min="2" max="2" width="12.7109375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="12.7109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="22" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="22" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="23" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="28" t="s">
-        <v>334</v>
-      </c>
+      <c r="A6" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1598,1054 +1595,1054 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="10" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="10"/>
-    <col min="8" max="8" width="16.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="10"/>
-    <col min="11" max="11" width="15.7109375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="10"/>
+    <col min="4" max="4" width="4.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="29"/>
+    <col min="8" max="8" width="16.28515625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="29"/>
+    <col min="11" max="11" width="15.7109375" style="29" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="27">
         <v>1</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="21"/>
+      <c r="E2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="28">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13">
-        <v>3</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="D5" s="28">
+        <v>3</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="28">
         <v>4</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="28">
         <v>5</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="E7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="28">
         <v>6</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="E8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="28">
         <v>7</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="28">
         <v>8</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="13"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="28">
         <v>9</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="E12" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="28">
         <v>10</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="E14" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="28">
         <v>11</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="28">
         <v>12</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="E18" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="28">
         <v>13</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="E19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="28">
         <v>14</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="E20" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="28">
         <v>15</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="E22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="28">
         <v>16</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="E24" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="28">
         <v>17</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="E25" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="28">
         <v>18</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="13"/>
+      <c r="E26" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="F27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="10" t="s">
+      <c r="D27" s="30"/>
+      <c r="F27" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="30">
         <v>19</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="15" t="s">
+      <c r="E28" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="30">
         <v>20</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="15" t="s">
+      <c r="E29" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" s="10" t="s">
+      <c r="E30" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="30">
         <v>21</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="15" t="s">
+      <c r="E31" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="29">
         <v>22</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="10" t="s">
+      <c r="F32" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="29">
         <v>23</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="10" t="s">
+      <c r="E33" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="29">
         <v>24</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="10" t="s">
+      <c r="E34" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="29">
         <v>25</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="10" t="s">
+      <c r="F35" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="10" t="s">
+      <c r="E37" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="29">
         <v>26</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="10" t="s">
+      <c r="E38" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="29">
         <v>27</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J40" s="10" t="s">
+      <c r="E40" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="10" t="s">
+      <c r="E41" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -2656,7 +2653,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -2665,24 +2662,24 @@
       <c r="C43" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="29">
         <v>28</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="10" t="s">
+      <c r="E43" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -2691,24 +2688,24 @@
       <c r="C44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="29">
         <v>29</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="10" t="s">
+      <c r="E44" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -2717,21 +2714,21 @@
       <c r="C45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="29">
         <v>30</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="10" t="s">
+      <c r="E45" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -2740,18 +2737,18 @@
       <c r="C46" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="29">
         <v>31</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="10" t="s">
+      <c r="F46" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -2762,7 +2759,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -2771,15 +2768,15 @@
       <c r="C48" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="29">
         <v>32</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -2788,15 +2785,15 @@
       <c r="C49" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="29">
         <v>33</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -2805,18 +2802,18 @@
       <c r="C50" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I50" s="10" t="s">
+      <c r="F50" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -2825,15 +2822,15 @@
       <c r="C51" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="29">
         <v>34</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="A52" s="10">
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -2844,7 +2841,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
+      <c r="A53" s="10">
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -2855,7 +2852,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -2864,21 +2861,21 @@
       <c r="C54" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="29">
         <v>35</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="10" t="s">
+      <c r="E54" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
+      <c r="A55" s="10">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -2889,7 +2886,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
+      <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -2898,21 +2895,21 @@
       <c r="C56" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="29">
         <v>36</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="E56" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
+      <c r="A57" s="10">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -2921,15 +2918,15 @@
       <c r="C57" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="29">
         <v>37</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
+      <c r="A58" s="10">
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -2938,15 +2935,15 @@
       <c r="C58" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="10" t="s">
+      <c r="F58" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
+      <c r="A59" s="10">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -2955,15 +2952,15 @@
       <c r="C59" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="29">
         <v>38</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
+      <c r="A60" s="10">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -2974,7 +2971,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
+      <c r="A61" s="10">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -2983,15 +2980,15 @@
       <c r="C61" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="29">
         <v>39</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
+      <c r="A62" s="10">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -3000,15 +2997,15 @@
       <c r="C62" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="29">
         <v>40</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
+      <c r="A63" s="10">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -3019,7 +3016,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
+      <c r="A64" s="10">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -3028,15 +3025,15 @@
       <c r="C64" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="29">
         <v>41</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
+      <c r="A65" s="10">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -3045,15 +3042,15 @@
       <c r="C65" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="29">
         <v>42</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
+      <c r="A66" s="10">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -3062,15 +3059,15 @@
       <c r="C66" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="29">
         <v>43</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="11">
+      <c r="A67" s="10">
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -3079,15 +3076,15 @@
       <c r="C67" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="29">
         <v>44</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
+      <c r="A68" s="10">
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -3098,7 +3095,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
+      <c r="A69" s="10">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -3107,24 +3104,24 @@
       <c r="C69" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="29">
         <v>45</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K69" s="10" t="s">
+      <c r="E69" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K69" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
+      <c r="A70" s="10">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -3133,15 +3130,15 @@
       <c r="C70" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="29">
         <v>46</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
+      <c r="A71" s="10">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -3152,7 +3149,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
+      <c r="A72" s="10">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -3161,15 +3158,15 @@
       <c r="C72" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="29">
         <v>47</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
+      <c r="A73" s="10">
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -3178,21 +3175,21 @@
       <c r="C73" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="29">
         <v>48</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I73" s="10" t="s">
+      <c r="E73" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
+      <c r="A74" s="10">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -3201,18 +3198,18 @@
       <c r="C74" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="29">
         <v>49</v>
       </c>
-      <c r="F74" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I74" s="10" t="s">
+      <c r="F74" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I74" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="11">
+      <c r="A75" s="10">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -3221,18 +3218,18 @@
       <c r="C75" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="29">
         <v>50</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G75" s="10" t="s">
+      <c r="F75" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
+      <c r="A76" s="10">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -3241,21 +3238,21 @@
       <c r="C76" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="29">
         <v>51</v>
       </c>
-      <c r="G76" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="10" t="s">
+      <c r="G76" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="11">
+      <c r="A77" s="10">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -3264,21 +3261,21 @@
       <c r="C77" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="29">
         <v>52</v>
       </c>
-      <c r="F77" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I77" s="10" t="s">
+      <c r="F77" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
+      <c r="A78" s="10">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -3287,24 +3284,24 @@
       <c r="C78" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="29">
         <v>53</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="10" t="s">
+      <c r="E78" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="11">
+      <c r="A79" s="10">
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -3313,18 +3310,18 @@
       <c r="C79" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="29">
         <v>54</v>
       </c>
-      <c r="H79" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J79" s="10" t="s">
+      <c r="H79" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J79" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
+      <c r="A80" s="10">
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -3333,15 +3330,15 @@
       <c r="C80" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F80" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="10" t="s">
+      <c r="F80" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="11">
+      <c r="A81" s="10">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -3350,15 +3347,15 @@
       <c r="C81" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H81" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="10" t="s">
+      <c r="H81" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="11">
+      <c r="A82" s="10">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -3367,12 +3364,12 @@
       <c r="C82" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="11">
+      <c r="A83" s="10">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -3381,21 +3378,21 @@
       <c r="C83" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="10" t="s">
+      <c r="E83" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="11">
+      <c r="A84" s="10">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -3404,18 +3401,18 @@
       <c r="C84" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="29">
         <v>55</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J84" s="10" t="s">
+      <c r="E84" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J84" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="11">
+      <c r="A85" s="10">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -3424,12 +3421,12 @@
       <c r="C85" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="11">
+      <c r="A86" s="10">
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -3438,12 +3435,12 @@
       <c r="C86" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="11">
+      <c r="A87" s="10">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -3452,21 +3449,21 @@
       <c r="C87" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="29">
         <v>56</v>
       </c>
-      <c r="F87" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I87" s="10" t="s">
+      <c r="F87" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="11">
+      <c r="A88" s="10">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -3475,24 +3472,24 @@
       <c r="C88" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="29">
         <v>57</v>
       </c>
-      <c r="E88" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K88" s="10" t="s">
+      <c r="E88" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H88" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K88" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="11">
+      <c r="A89" s="10">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -3501,18 +3498,18 @@
       <c r="C89" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F89" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="10" t="s">
+      <c r="F89" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="11">
+      <c r="A90" s="10">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -3521,21 +3518,21 @@
       <c r="C90" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="29">
         <v>58</v>
       </c>
-      <c r="E90" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H90" s="10" t="s">
+      <c r="E90" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="11">
+      <c r="A91" s="10">
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -3544,15 +3541,15 @@
       <c r="C91" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="29">
         <v>59</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="11">
+      <c r="A92" s="10">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -3561,21 +3558,21 @@
       <c r="C92" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="29">
         <v>60</v>
       </c>
-      <c r="F92" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I92" s="10" t="s">
+      <c r="F92" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="11">
+      <c r="A93" s="10">
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -3584,27 +3581,27 @@
       <c r="C93" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="29">
         <v>61</v>
       </c>
-      <c r="E93" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K93" s="10" t="s">
+      <c r="E93" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I93" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J93" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K93" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="11">
+      <c r="A94" s="10">
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -3613,12 +3610,12 @@
       <c r="C94" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="11">
+      <c r="A95" s="10">
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -3627,21 +3624,21 @@
       <c r="C95" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="29">
         <v>62</v>
       </c>
-      <c r="F95" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J95" s="10" t="s">
+      <c r="F95" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J95" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="11">
+      <c r="A96" s="10">
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -3650,21 +3647,21 @@
       <c r="C96" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E96" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I96" s="10" t="s">
+      <c r="E96" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I96" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="11">
+      <c r="A97" s="10">
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
@@ -3673,18 +3670,18 @@
       <c r="C97" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="29">
         <v>63</v>
       </c>
-      <c r="E97" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I97" s="10" t="s">
+      <c r="E97" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="11">
+      <c r="A98" s="10">
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
@@ -3693,18 +3690,18 @@
       <c r="C98" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="29">
         <v>64</v>
       </c>
-      <c r="F98" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G98" s="10" t="s">
+      <c r="F98" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="11">
+      <c r="A99" s="10">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -3713,15 +3710,15 @@
       <c r="C99" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="29">
         <v>65</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="11">
+      <c r="A100" s="10">
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -3730,21 +3727,21 @@
       <c r="C100" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="29">
         <v>66</v>
       </c>
-      <c r="E100" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="10" t="s">
+      <c r="E100" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="11">
+      <c r="A101" s="10">
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -3753,12 +3750,12 @@
       <c r="C101" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="11">
+      <c r="A102" s="10">
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
@@ -3767,21 +3764,21 @@
       <c r="C102" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="29">
         <v>67</v>
       </c>
-      <c r="F102" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="10" t="s">
+      <c r="F102" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="11">
+      <c r="A103" s="10">
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -3790,12 +3787,12 @@
       <c r="C103" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E103" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="11">
+      <c r="A104" s="10">
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
@@ -3804,21 +3801,21 @@
       <c r="C104" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="29">
         <v>68</v>
       </c>
-      <c r="E104" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I104" s="10" t="s">
+      <c r="E104" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I104" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="11">
+      <c r="A105" s="10">
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
@@ -3827,15 +3824,15 @@
       <c r="C105" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="29">
         <v>69</v>
       </c>
-      <c r="F105" s="10" t="s">
+      <c r="F105" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="11">
+      <c r="A106" s="10">
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
@@ -3844,15 +3841,15 @@
       <c r="C106" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="29">
         <v>70</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E106" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="11">
+      <c r="A107" s="10">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
@@ -3861,12 +3858,12 @@
       <c r="C107" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E107" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="11">
+      <c r="A108" s="10">
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
@@ -3875,18 +3872,18 @@
       <c r="C108" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="29">
         <v>71</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I108" s="10" t="s">
+      <c r="E108" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="11">
+      <c r="A109" s="10">
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
@@ -3895,21 +3892,21 @@
       <c r="C109" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="29">
         <v>72</v>
       </c>
-      <c r="F109" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J109" s="10" t="s">
+      <c r="F109" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="11">
+      <c r="A110" s="10">
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
@@ -3918,24 +3915,24 @@
       <c r="C110" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110" s="29">
         <v>73</v>
       </c>
-      <c r="E110" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I110" s="10" t="s">
+      <c r="E110" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I110" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="11">
+      <c r="A111" s="10">
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
@@ -3944,15 +3941,15 @@
       <c r="C111" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D111" s="29">
         <v>74</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="F111" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="11">
+      <c r="A112" s="10">
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
@@ -3961,18 +3958,18 @@
       <c r="C112" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="29">
         <v>75</v>
       </c>
-      <c r="E112" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I112" s="10" t="s">
+      <c r="E112" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I112" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="11">
+      <c r="A113" s="10">
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
@@ -3981,15 +3978,15 @@
       <c r="C113" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113" s="29">
         <v>76</v>
       </c>
-      <c r="F113" s="10" t="s">
+      <c r="F113" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="11">
+      <c r="A114" s="10">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -3998,21 +3995,21 @@
       <c r="C114" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E114" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I114" s="10" t="s">
+      <c r="E114" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I114" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="11">
+      <c r="A115" s="10">
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
@@ -4021,21 +4018,21 @@
       <c r="C115" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D115" s="10">
-        <v>77</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I115" s="10" t="s">
+      <c r="D115" s="29">
+        <v>77</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I115" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="11">
+      <c r="A116" s="10">
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
@@ -4044,12 +4041,12 @@
       <c r="C116" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="E116" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="11">
+      <c r="A117" s="10">
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
@@ -4058,18 +4055,18 @@
       <c r="C117" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F117" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H117" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J117" s="10" t="s">
+      <c r="F117" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H117" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J117" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="11">
+      <c r="A118" s="10">
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
@@ -4078,27 +4075,27 @@
       <c r="C118" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="29">
         <v>78</v>
       </c>
-      <c r="E118" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K118" s="10" t="s">
+      <c r="E118" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I118" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K118" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="11">
+      <c r="A119" s="10">
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
@@ -4107,21 +4104,21 @@
       <c r="C119" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D119" s="29">
         <v>79</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H119" s="10" t="s">
+      <c r="E119" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H119" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="11">
+      <c r="A120" s="10">
         <v>119</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -4130,18 +4127,18 @@
       <c r="C120" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D120" s="29">
         <v>80</v>
       </c>
-      <c r="F120" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H120" s="10" t="s">
+      <c r="F120" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H120" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="11">
+      <c r="A121" s="10">
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
@@ -4150,21 +4147,21 @@
       <c r="C121" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D121" s="10">
+      <c r="D121" s="29">
         <v>81</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J121" s="10" t="s">
+      <c r="E121" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J121" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="11">
+      <c r="A122" s="10">
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
@@ -4173,15 +4170,15 @@
       <c r="C122" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D122" s="10">
+      <c r="D122" s="29">
         <v>82</v>
       </c>
-      <c r="E122" s="10" t="s">
+      <c r="E122" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="11">
+      <c r="A123" s="10">
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
@@ -4190,21 +4187,21 @@
       <c r="C123" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D123" s="29">
         <v>83</v>
       </c>
-      <c r="F123" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I123" s="10" t="s">
+      <c r="F123" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I123" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="11">
+      <c r="A124" s="10">
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -4213,18 +4210,18 @@
       <c r="C124" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D124" s="29">
         <v>84</v>
       </c>
-      <c r="F124" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H124" s="10" t="s">
+      <c r="F124" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H124" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="11">
+      <c r="A125" s="10">
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
@@ -4233,21 +4230,21 @@
       <c r="C125" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D125" s="10">
+      <c r="D125" s="29">
         <v>85</v>
       </c>
-      <c r="H125" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I125" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J125" s="10" t="s">
+      <c r="H125" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I125" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J125" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="11">
+      <c r="A126" s="10">
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
@@ -4256,12 +4253,12 @@
       <c r="C126" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L126" s="10" t="s">
+      <c r="L126" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="11">
+      <c r="A127" s="10">
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
@@ -4270,18 +4267,18 @@
       <c r="C127" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F127" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H127" s="10" t="s">
+      <c r="F127" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="11">
+      <c r="A128" s="10">
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
@@ -4290,15 +4287,15 @@
       <c r="C128" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D128" s="10">
+      <c r="D128" s="29">
         <v>86</v>
       </c>
-      <c r="E128" s="10" t="s">
+      <c r="E128" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="11">
+      <c r="A129" s="10">
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
@@ -4307,12 +4304,12 @@
       <c r="C129" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L129" s="10" t="s">
+      <c r="L129" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="11">
+      <c r="A130" s="10">
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
@@ -4323,7 +4320,7 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="11">
+      <c r="A131" s="10">
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -4332,27 +4329,27 @@
       <c r="C131" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D131" s="10">
+      <c r="D131" s="29">
         <v>87</v>
       </c>
-      <c r="E131" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I131" s="10" t="s">
+      <c r="E131" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I131" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="11">
+      <c r="A132" s="10">
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
@@ -4361,24 +4358,24 @@
       <c r="C132" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D132" s="29">
         <v>88</v>
       </c>
-      <c r="E132" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I132" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K132" s="10" t="s">
+      <c r="E132" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I132" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K132" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="11">
+      <c r="A133" s="10">
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
@@ -4389,7 +4386,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="11">
+      <c r="A134" s="10">
         <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
@@ -4398,21 +4395,21 @@
       <c r="C134" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D134" s="10">
+      <c r="D134" s="29">
         <v>89</v>
       </c>
-      <c r="E134" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J134" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L134" s="10" t="s">
+      <c r="E134" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J134" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L134" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="11">
+      <c r="A135" s="10">
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -4421,24 +4418,24 @@
       <c r="C135" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D135" s="10">
+      <c r="D135" s="29">
         <v>90</v>
       </c>
-      <c r="E135" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J135" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L135" s="10" t="s">
+      <c r="E135" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H135" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J135" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L135" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="11">
+      <c r="A136" s="10">
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
@@ -4447,21 +4444,21 @@
       <c r="C136" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D136" s="10">
+      <c r="D136" s="29">
         <v>91</v>
       </c>
-      <c r="F136" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H136" s="10" t="s">
+      <c r="F136" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H136" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="11">
+      <c r="A137" s="10">
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -4470,18 +4467,18 @@
       <c r="C137" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D137" s="10">
+      <c r="D137" s="29">
         <v>92</v>
       </c>
-      <c r="E137" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I137" s="10" t="s">
+      <c r="E137" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I137" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="11">
+      <c r="A138" s="10">
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
@@ -4490,21 +4487,21 @@
       <c r="C138" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D138" s="10">
+      <c r="D138" s="29">
         <v>93</v>
       </c>
-      <c r="E138" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F138" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H138" s="10" t="s">
+      <c r="E138" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H138" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="11">
+      <c r="A139" s="10">
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
@@ -4513,21 +4510,21 @@
       <c r="C139" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D139" s="10">
+      <c r="D139" s="29">
         <v>94</v>
       </c>
-      <c r="F139" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G139" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I139" s="10" t="s">
+      <c r="F139" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G139" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I139" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="11">
+      <c r="A140" s="10">
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
@@ -4536,18 +4533,18 @@
       <c r="C140" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D140" s="10">
+      <c r="D140" s="29">
         <v>95</v>
       </c>
-      <c r="E140" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I140" s="10" t="s">
+      <c r="E140" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I140" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="11">
+      <c r="A141" s="10">
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
@@ -4556,18 +4553,18 @@
       <c r="C141" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D141" s="10">
+      <c r="D141" s="29">
         <v>96</v>
       </c>
-      <c r="G141" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I141" s="10" t="s">
+      <c r="G141" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I141" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="11">
+      <c r="A142" s="10">
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
@@ -4576,21 +4573,21 @@
       <c r="C142" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D142" s="10">
+      <c r="D142" s="29">
         <v>97</v>
       </c>
-      <c r="E142" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I142" s="10" t="s">
+      <c r="E142" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G142" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I142" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="11">
+      <c r="A143" s="10">
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
@@ -4599,21 +4596,21 @@
       <c r="C143" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D143" s="10">
+      <c r="D143" s="29">
         <v>98</v>
       </c>
-      <c r="E143" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F143" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G143" s="10" t="s">
+      <c r="E143" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F143" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="11">
+      <c r="A144" s="10">
         <v>143</v>
       </c>
       <c r="B144" s="8" t="s">
@@ -4622,12 +4619,12 @@
       <c r="C144" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L144" s="10" t="s">
+      <c r="L144" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="11">
+      <c r="A145" s="10">
         <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
@@ -4636,24 +4633,24 @@
       <c r="C145" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D145" s="10">
+      <c r="D145" s="29">
         <v>99</v>
       </c>
-      <c r="F145" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H145" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J145" s="10" t="s">
+      <c r="F145" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G145" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H145" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J145" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="11">
+      <c r="A146" s="10">
         <v>145</v>
       </c>
       <c r="B146" s="8" t="s">
@@ -4662,15 +4659,15 @@
       <c r="C146" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D146" s="10">
+      <c r="D146" s="29">
         <v>100</v>
       </c>
-      <c r="F146" s="10" t="s">
+      <c r="F146" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="11">
+      <c r="A147" s="10">
         <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
@@ -4681,7 +4678,7 @@
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="11">
+      <c r="A148" s="10">
         <v>147</v>
       </c>
       <c r="B148" s="8" t="s">
@@ -4690,21 +4687,21 @@
       <c r="C148" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D148" s="10">
+      <c r="D148" s="29">
         <v>101</v>
       </c>
-      <c r="E148" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H148" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I148" s="10" t="s">
+      <c r="E148" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H148" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I148" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="11">
+      <c r="A149" s="10">
         <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
@@ -4713,15 +4710,15 @@
       <c r="C149" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D149" s="10">
+      <c r="D149" s="29">
         <v>102</v>
       </c>
-      <c r="G149" s="10" t="s">
+      <c r="G149" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="11">
+      <c r="A150" s="10">
         <v>149</v>
       </c>
       <c r="B150" s="8" t="s">
@@ -4730,15 +4727,15 @@
       <c r="C150" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D150" s="10">
+      <c r="D150" s="29">
         <v>103</v>
       </c>
-      <c r="E150" s="10" t="s">
+      <c r="E150" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="11">
+      <c r="A151" s="10">
         <v>150</v>
       </c>
       <c r="B151" s="8" t="s">
@@ -4747,12 +4744,12 @@
       <c r="C151" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L151" s="10" t="s">
+      <c r="L151" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="11">
+      <c r="A152" s="10">
         <v>151</v>
       </c>
       <c r="B152" s="8" t="s">
@@ -4763,7 +4760,7 @@
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="11">
+      <c r="A153" s="10">
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
@@ -4772,24 +4769,24 @@
       <c r="C153" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D153" s="10">
+      <c r="D153" s="29">
         <v>104</v>
       </c>
-      <c r="F153" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H153" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J153" s="10" t="s">
+      <c r="F153" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G153" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H153" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J153" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="11">
+      <c r="A154" s="10">
         <v>153</v>
       </c>
       <c r="B154" s="8" t="s">
@@ -4798,27 +4795,27 @@
       <c r="C154" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D154" s="10">
+      <c r="D154" s="29">
         <v>105</v>
       </c>
-      <c r="E154" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F154" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H154" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J154" s="10" t="s">
+      <c r="E154" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F154" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G154" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H154" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J154" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="11">
+      <c r="A155" s="10">
         <v>154</v>
       </c>
       <c r="B155" s="8" t="s">
@@ -4827,18 +4824,18 @@
       <c r="C155" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D155" s="10">
+      <c r="D155" s="29">
         <v>106</v>
       </c>
-      <c r="F155" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G155" s="10" t="s">
+      <c r="F155" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G155" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="11">
+      <c r="A156" s="10">
         <v>155</v>
       </c>
       <c r="B156" s="8" t="s">
@@ -4847,12 +4844,12 @@
       <c r="C156" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E156" s="10" t="s">
+      <c r="E156" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="11">
+      <c r="A157" s="10">
         <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
@@ -4863,7 +4860,7 @@
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="11">
+      <c r="A158" s="10">
         <v>157</v>
       </c>
       <c r="B158" s="8" t="s">
@@ -4872,24 +4869,24 @@
       <c r="C158" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D158" s="10">
+      <c r="D158" s="29">
         <v>107</v>
       </c>
-      <c r="E158" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H158" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I158" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J158" s="10" t="s">
+      <c r="E158" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I158" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J158" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="11">
+      <c r="A159" s="10">
         <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
@@ -4898,18 +4895,18 @@
       <c r="C159" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D159" s="10">
+      <c r="D159" s="29">
         <v>108</v>
       </c>
-      <c r="F159" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G159" s="10" t="s">
+      <c r="F159" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G159" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="11">
+      <c r="A160" s="10">
         <v>159</v>
       </c>
       <c r="B160" s="8" t="s">
@@ -4918,18 +4915,18 @@
       <c r="C160" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D160" s="10">
+      <c r="D160" s="29">
         <v>109</v>
       </c>
-      <c r="I160" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K160" s="10" t="s">
+      <c r="I160" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K160" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="11">
+      <c r="A161" s="10">
         <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
@@ -4938,24 +4935,24 @@
       <c r="C161" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D161" s="10">
+      <c r="D161" s="29">
         <v>110</v>
       </c>
-      <c r="E161" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H161" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I161" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J161" s="10" t="s">
+      <c r="E161" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H161" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I161" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J161" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="11">
+      <c r="A162" s="10">
         <v>161</v>
       </c>
       <c r="B162" s="8" t="s">
@@ -4966,7 +4963,7 @@
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="11">
+      <c r="A163" s="10">
         <v>162</v>
       </c>
       <c r="B163" s="8" t="s">
@@ -4975,21 +4972,21 @@
       <c r="C163" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D163" s="10">
+      <c r="D163" s="29">
         <v>111</v>
       </c>
-      <c r="E163" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I163" s="10" t="s">
+      <c r="E163" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G163" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I163" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="11">
+      <c r="A164" s="10">
         <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
@@ -4998,18 +4995,18 @@
       <c r="C164" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E164" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H164" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I164" s="10" t="s">
+      <c r="E164" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H164" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I164" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="11">
+      <c r="A165" s="10">
         <v>164</v>
       </c>
       <c r="B165" s="8" t="s">
@@ -5018,21 +5015,21 @@
       <c r="C165" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D165" s="10">
+      <c r="D165" s="29">
         <v>112</v>
       </c>
-      <c r="E165" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F165" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H165" s="10" t="s">
+      <c r="E165" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F165" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H165" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="11">
+      <c r="A166" s="10">
         <v>165</v>
       </c>
       <c r="B166" s="8" t="s">
@@ -5041,24 +5038,24 @@
       <c r="C166" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D166" s="10">
+      <c r="D166" s="29">
         <v>113</v>
       </c>
-      <c r="E166" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H166" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I166" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J166" s="10" t="s">
+      <c r="E166" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H166" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I166" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J166" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="11">
+      <c r="A167" s="10">
         <v>166</v>
       </c>
       <c r="B167" s="8" t="s">
@@ -5067,18 +5064,18 @@
       <c r="C167" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D167" s="10">
+      <c r="D167" s="29">
         <v>114</v>
       </c>
-      <c r="F167" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G167" s="10" t="s">
+      <c r="F167" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G167" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="11">
+      <c r="A168" s="10">
         <v>167</v>
       </c>
       <c r="B168" s="8" t="s">
@@ -5087,15 +5084,15 @@
       <c r="C168" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D168" s="10">
+      <c r="D168" s="29">
         <v>115</v>
       </c>
-      <c r="E168" s="10" t="s">
+      <c r="E168" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="11">
+      <c r="A169" s="10">
         <v>168</v>
       </c>
       <c r="B169" s="8" t="s">
@@ -5104,15 +5101,15 @@
       <c r="C169" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F169" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G169" s="10" t="s">
+      <c r="F169" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G169" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="11">
+      <c r="A170" s="10">
         <v>169</v>
       </c>
       <c r="B170" s="8" t="s">
@@ -5121,24 +5118,24 @@
       <c r="C170" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D170" s="10">
+      <c r="D170" s="29">
         <v>116</v>
       </c>
-      <c r="E170" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F170" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H170" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J170" s="10" t="s">
+      <c r="E170" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F170" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H170" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J170" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="11">
+      <c r="A171" s="10">
         <v>170</v>
       </c>
       <c r="B171" s="8" t="s">
@@ -5147,12 +5144,12 @@
       <c r="C171" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L171" s="10" t="s">
+      <c r="L171" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="11">
+      <c r="A172" s="10">
         <v>171</v>
       </c>
       <c r="B172" s="8" t="s">
@@ -5161,18 +5158,18 @@
       <c r="C172" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D172" s="10">
+      <c r="D172" s="29">
         <v>117</v>
       </c>
-      <c r="E172" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I172" s="10" t="s">
+      <c r="E172" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I172" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="11">
+      <c r="A173" s="10">
         <v>172</v>
       </c>
       <c r="B173" s="8" t="s">
@@ -5181,24 +5178,24 @@
       <c r="C173" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D173" s="10">
+      <c r="D173" s="29">
         <v>118</v>
       </c>
-      <c r="E173" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F173" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G173" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H173" s="10" t="s">
+      <c r="E173" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F173" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G173" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H173" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="11">
+      <c r="A174" s="10">
         <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
@@ -5207,21 +5204,21 @@
       <c r="C174" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E174" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F174" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H174" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I174" s="10" t="s">
+      <c r="E174" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F174" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H174" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I174" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="11">
+      <c r="A175" s="10">
         <v>174</v>
       </c>
       <c r="B175" s="8" t="s">
@@ -5230,756 +5227,756 @@
       <c r="C175" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D175" s="10">
+      <c r="D175" s="29">
         <v>119</v>
       </c>
-      <c r="E175" s="10" t="s">
+      <c r="E175" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="16">
+      <c r="A176" s="13">
         <v>175</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E176" s="18" t="s">
+      <c r="E176" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="16">
+      <c r="A177" s="13">
         <v>176</v>
       </c>
-      <c r="B177" s="17" t="s">
+      <c r="B177" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D177" s="10">
+      <c r="D177" s="29">
         <v>120</v>
       </c>
-      <c r="E177" s="18" t="s">
+      <c r="E177" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="16">
+      <c r="A178" s="13">
         <v>177</v>
       </c>
-      <c r="B178" s="17" t="s">
+      <c r="B178" s="14" t="s">
         <v>182</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D178" s="10">
+      <c r="D178" s="29">
         <v>121</v>
       </c>
-      <c r="E178" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G178" s="10" t="s">
+      <c r="E178" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G178" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="16">
+      <c r="A179" s="13">
         <v>178</v>
       </c>
-      <c r="B179" s="17" t="s">
+      <c r="B179" s="14" t="s">
         <v>183</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D179" s="10">
+      <c r="D179" s="29">
         <v>122</v>
       </c>
-      <c r="F179" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H179" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J179" s="10" t="s">
+      <c r="F179" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H179" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J179" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="16">
+      <c r="A180" s="13">
         <v>179</v>
       </c>
-      <c r="B180" s="17" t="s">
+      <c r="B180" s="14" t="s">
         <v>184</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D180" s="10">
+      <c r="D180" s="29">
         <v>123</v>
       </c>
-      <c r="F180" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H180" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J180" s="10" t="s">
+      <c r="F180" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H180" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J180" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="16">
+      <c r="A181" s="13">
         <v>180</v>
       </c>
-      <c r="B181" s="17" t="s">
+      <c r="B181" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D181" s="18">
+      <c r="D181" s="31">
         <v>124</v>
       </c>
-      <c r="E181" s="18" t="s">
+      <c r="E181" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="16">
+      <c r="A182" s="13">
         <v>181</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D182" s="18">
+      <c r="D182" s="31">
         <v>125</v>
       </c>
-      <c r="E182" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="L182" s="10" t="s">
+      <c r="E182" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L182" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="16">
+      <c r="A183" s="13">
         <v>182</v>
       </c>
-      <c r="B183" s="17" t="s">
+      <c r="B183" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="C183" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D183" s="18">
+      <c r="D183" s="31">
         <v>126</v>
       </c>
-      <c r="E183" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H183" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J183" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K183" s="10" t="s">
+      <c r="E183" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H183" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J183" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K183" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="16">
+      <c r="A184" s="13">
         <v>183</v>
       </c>
-      <c r="B184" s="17" t="s">
+      <c r="B184" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D184" s="18">
+      <c r="D184" s="31">
         <v>127</v>
       </c>
-      <c r="E184" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H184" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J184" s="10" t="s">
+      <c r="E184" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H184" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J184" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="16">
+      <c r="A185" s="13">
         <v>184</v>
       </c>
-      <c r="B185" s="17" t="s">
+      <c r="B185" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D185" s="18">
+      <c r="D185" s="31">
         <v>128</v>
       </c>
-      <c r="E185" s="18" t="s">
+      <c r="E185" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="16">
+      <c r="A186" s="13">
         <v>185</v>
       </c>
-      <c r="B186" s="17" t="s">
+      <c r="B186" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C186" s="17" t="s">
+      <c r="C186" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D186" s="18">
+      <c r="D186" s="31">
         <v>129</v>
       </c>
-      <c r="E186" s="18" t="s">
+      <c r="E186" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="16">
+      <c r="A187" s="13">
         <v>186</v>
       </c>
-      <c r="B187" s="17" t="s">
+      <c r="B187" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D187" s="18">
+      <c r="D187" s="31">
         <v>130</v>
       </c>
-      <c r="E187" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H187" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J187" s="10" t="s">
+      <c r="E187" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H187" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J187" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="16">
+      <c r="A188" s="13">
         <v>187</v>
       </c>
-      <c r="B188" s="17" t="s">
+      <c r="B188" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="C188" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D188" s="18">
+      <c r="D188" s="31">
         <v>131</v>
       </c>
-      <c r="E188" s="18" t="s">
+      <c r="E188" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="16">
+      <c r="A189" s="13">
         <v>188</v>
       </c>
-      <c r="B189" s="17" t="s">
+      <c r="B189" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D189" s="18">
+      <c r="D189" s="31">
         <v>132</v>
       </c>
-      <c r="E189" s="18" t="s">
+      <c r="E189" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="16">
+      <c r="A190" s="13">
         <v>189</v>
       </c>
-      <c r="B190" s="17" t="s">
+      <c r="B190" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D190" s="18">
+      <c r="D190" s="31">
         <v>133</v>
       </c>
-      <c r="E190" s="18" t="s">
+      <c r="E190" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="16">
+      <c r="A191" s="13">
         <v>190</v>
       </c>
-      <c r="B191" s="17" t="s">
+      <c r="B191" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C191" s="17" t="s">
+      <c r="C191" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D191" s="18">
+      <c r="D191" s="31">
         <v>134</v>
       </c>
-      <c r="E191" s="18" t="s">
+      <c r="E191" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="16">
+      <c r="A192" s="13">
         <v>191</v>
       </c>
-      <c r="B192" s="17" t="s">
+      <c r="B192" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="C192" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D192" s="18">
+      <c r="D192" s="31">
         <v>135</v>
       </c>
-      <c r="E192" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F192" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G192" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I192" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K192" s="10" t="s">
+      <c r="E192" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F192" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G192" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I192" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K192" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="16">
+      <c r="A193" s="13">
         <v>192</v>
       </c>
-      <c r="B193" s="17" t="s">
+      <c r="B193" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="L193" s="10" t="s">
+      <c r="L193" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="16">
+      <c r="A194" s="13">
         <v>193</v>
       </c>
-      <c r="B194" s="17" t="s">
+      <c r="B194" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="H194" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J194" s="10" t="s">
+      <c r="H194" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J194" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="16">
+      <c r="A195" s="13">
         <v>194</v>
       </c>
-      <c r="B195" s="17" t="s">
+      <c r="B195" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F195" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I195" s="10" t="s">
+      <c r="F195" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I195" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="16">
+      <c r="A196" s="13">
         <v>195</v>
       </c>
-      <c r="B196" s="17" t="s">
+      <c r="B196" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F196" s="10" t="s">
+      <c r="F196" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="16">
+      <c r="A197" s="13">
         <v>196</v>
       </c>
-      <c r="B197" s="17" t="s">
+      <c r="B197" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C197" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D197" s="10">
+      <c r="D197" s="29">
         <v>136</v>
       </c>
-      <c r="F197" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G197" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H197" s="10" t="s">
+      <c r="F197" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G197" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H197" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="16">
+      <c r="A198" s="13">
         <v>197</v>
       </c>
-      <c r="B198" s="17" t="s">
+      <c r="B198" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C198" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F198" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I198" s="10" t="s">
+      <c r="F198" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I198" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="16">
+      <c r="A199" s="13">
         <v>198</v>
       </c>
-      <c r="B199" s="17" t="s">
+      <c r="B199" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C199" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="L199" s="10" t="s">
+      <c r="L199" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="16">
+      <c r="A200" s="13">
         <v>199</v>
       </c>
-      <c r="B200" s="17" t="s">
+      <c r="B200" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G200" s="10" t="s">
+      <c r="G200" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="16">
+      <c r="A201" s="13">
         <v>200</v>
       </c>
-      <c r="B201" s="17" t="s">
+      <c r="B201" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C201" s="17" t="s">
+      <c r="C201" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D201" s="10">
+      <c r="D201" s="29">
         <v>137</v>
       </c>
-      <c r="F201" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G201" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J201" s="10" t="s">
+      <c r="F201" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G201" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J201" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="16">
+      <c r="A202" s="13">
         <v>201</v>
       </c>
-      <c r="B202" s="17" t="s">
+      <c r="B202" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D202" s="10">
+      <c r="D202" s="29">
         <v>138</v>
       </c>
-      <c r="G202" s="10" t="s">
+      <c r="G202" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" s="16">
+      <c r="A203" s="13">
         <v>202</v>
       </c>
-      <c r="B203" s="17" t="s">
+      <c r="B203" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C203" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G203" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I203" s="10" t="s">
+      <c r="G203" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I203" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="16">
+      <c r="A204" s="13">
         <v>203</v>
       </c>
-      <c r="B204" s="17" t="s">
+      <c r="B204" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="L204" s="10" t="s">
+      <c r="L204" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="16">
+      <c r="A205" s="13">
         <v>204</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G205" s="10" t="s">
+      <c r="G205" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="16">
+      <c r="A206" s="13">
         <v>205</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C206" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D206" s="10">
+      <c r="D206" s="29">
         <v>139</v>
       </c>
-      <c r="H206" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J206" s="10" t="s">
+      <c r="H206" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J206" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="16">
+      <c r="A207" s="13">
         <v>206</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="L207" s="10" t="s">
+      <c r="L207" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="16">
+      <c r="A208" s="13">
         <v>207</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" s="16">
+      <c r="A209" s="13">
         <v>208</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C209" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D209" s="10">
+      <c r="D209" s="29">
         <v>140</v>
       </c>
-      <c r="E209" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I209" s="10" t="s">
+      <c r="E209" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I209" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="16">
+      <c r="A210" s="13">
         <v>209</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C210" s="17" t="s">
+      <c r="C210" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F210" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G210" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I210" s="10" t="s">
+      <c r="F210" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G210" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I210" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="16">
+      <c r="A211" s="13">
         <v>210</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C211" s="17" t="s">
+      <c r="C211" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D211" s="10">
+      <c r="D211" s="29">
         <v>141</v>
       </c>
-      <c r="J211" s="10" t="s">
+      <c r="J211" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="16">
+      <c r="A212" s="13">
         <v>211</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="16">
+      <c r="A213" s="13">
         <v>212</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="C213" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D213" s="10">
+      <c r="D213" s="29">
         <v>142</v>
       </c>
-      <c r="I213" s="10" t="s">
+      <c r="I213" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="16">
+      <c r="A214" s="13">
         <v>213</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="17" t="s">
+      <c r="C214" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="16">
+      <c r="A215" s="13">
         <v>214</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C215" s="17" t="s">
+      <c r="C215" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" s="16">
+      <c r="A216" s="13">
         <v>215</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C216" s="17" t="s">
+      <c r="C216" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="I216" s="10" t="s">
+      <c r="I216" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="16">
+      <c r="A217" s="13">
         <v>216</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C217" s="17" t="s">
+      <c r="C217" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="16">
+      <c r="A218" s="13">
         <v>217</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C218" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="H218" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J218" s="10" t="s">
+      <c r="H218" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J218" s="29" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6107,56 +6104,56 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="2" width="90.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="17" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6167,13 +6164,13 @@
       <c r="B3" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6184,10 +6181,10 @@
       <c r="B4" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6198,10 +6195,10 @@
       <c r="B5" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6212,13 +6209,13 @@
       <c r="B6" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6229,16 +6226,16 @@
       <c r="B7" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6249,13 +6246,13 @@
       <c r="B8" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6266,10 +6263,10 @@
       <c r="B9" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6280,19 +6277,19 @@
       <c r="B10" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6303,16 +6300,16 @@
       <c r="B11" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6323,13 +6320,13 @@
       <c r="B12" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="C12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6340,16 +6337,16 @@
       <c r="B13" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6360,10 +6357,10 @@
       <c r="B14" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="E14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6374,13 +6371,13 @@
       <c r="B15" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6391,13 +6388,13 @@
       <c r="B16" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="C16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6408,19 +6405,19 @@
       <c r="B17" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="C17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6431,16 +6428,16 @@
       <c r="B18" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="C18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6451,13 +6448,13 @@
       <c r="B19" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6468,10 +6465,10 @@
       <c r="B20" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6482,13 +6479,13 @@
       <c r="B21" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="C21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6499,13 +6496,13 @@
       <c r="B22" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="C22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6525,818 +6522,818 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
     <col min="2" max="2" width="102.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="10" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="17" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="C12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="C14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="E17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="E18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="E20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="C22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="C23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="C24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="E26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="E27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="C28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="11" t="s">
+      <c r="C30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="C31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="C32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="11" t="s">
+      <c r="C34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="11" t="s">
+      <c r="E35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="11" t="s">
+      <c r="C37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="11" t="s">
+      <c r="C39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="11" t="s">
+      <c r="C41" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="11" t="s">
+      <c r="C43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="11" t="s">
+      <c r="E46" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="11" t="s">
+      <c r="E47" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="11" t="s">
+      <c r="C48" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="11" t="s">
+      <c r="C49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="11" t="s">
+      <c r="C50" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="11" t="s">
+      <c r="C51" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="A52" s="10">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="C52" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
+      <c r="A53" s="10">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="11" t="s">
+      <c r="C53" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="11" t="s">
+      <c r="C54" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>3</v>
       </c>
     </row>
